--- a/biology/Zoologie/Dubiefostola/Dubiefostola.xlsx
+++ b/biology/Zoologie/Dubiefostola/Dubiefostola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dubiefostola est un genre d'insectes coléoptères de la famille des Cerambycidae, de la sous-famille des Cerambycinae et de la tribu des Hesperophanini.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dubiefostola a été décrit par les entomologistes français Gérard Tavakilian et brésilien Miguel Angel Monné en 1991.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 avril 2019) :
 Dubiefostola auricollis Tavakilian &amp; Monné, 1991</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Luc Tavakilian et Miguel Angel Monné, « Quatre nouveaux genres d'Hesperophanini néotropicaux (Coleoptera, Cerambycidae) », L'Entomologiste, vol. 47, no 3,‎ 1991, p. 157-169 (ISSN 0013-8886, lire en ligne)</t>
         </is>
@@ -603,7 +621,9 @@
           <t>Articles liés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hesperophanini
 Liste des Cerambycinae de Guyane</t>
